--- a/All Tasks/Task 3A - Sprint Logs.xlsx
+++ b/All Tasks/Task 3A - Sprint Logs.xlsx
@@ -5,16 +5,30 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\computing\Downloads\All Tasks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub-clones\SoftwareEngineering\All Tasks\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="Actual">Sheet3!$G$4</definedName>
+    <definedName name="Average_Daily_Productive_Hours">Sheet3!$B$9</definedName>
+    <definedName name="Day_of_the_Sprint">Sheet3!$D$3:$D10</definedName>
+    <definedName name="Forecast">Sheet3!$E$2</definedName>
+    <definedName name="Productive_Hours">Sheet3!$B$8</definedName>
+    <definedName name="Sprint_End_Date">Sheet3!$B$4</definedName>
+    <definedName name="Sprint_Start_Date">Sheet3!$B$2</definedName>
+    <definedName name="Target">Sheet3!$F$2</definedName>
+    <definedName name="Total_Available_Hours">Sheet3!$B$7</definedName>
+    <definedName name="Work_Hours_Per_Day">Sheet3!$B$6</definedName>
+    <definedName name="Working_Days">Sheet3!$B$5</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
   <si>
     <t>Sprint Logs</t>
   </si>
@@ -109,6 +123,60 @@
   </si>
   <si>
     <t xml:space="preserve">Create method </t>
+  </si>
+  <si>
+    <t>Sprint Start Date</t>
+  </si>
+  <si>
+    <t>Sprint End Date</t>
+  </si>
+  <si>
+    <t>Working Days</t>
+  </si>
+  <si>
+    <t>Work Hours Per Day</t>
+  </si>
+  <si>
+    <t>Total Available Hours</t>
+  </si>
+  <si>
+    <t>Productive Hours</t>
+  </si>
+  <si>
+    <t>Day of the Sprint</t>
+  </si>
+  <si>
+    <t>Forecast</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>Actual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average Daily Productive Hours </t>
+  </si>
+  <si>
+    <t>Day of Sprint</t>
+  </si>
+  <si>
+    <t>Developer 1</t>
+  </si>
+  <si>
+    <t>Developer 2</t>
+  </si>
+  <si>
+    <t>Developer 3</t>
+  </si>
+  <si>
+    <t>Developer 4</t>
+  </si>
+  <si>
+    <t>Total Effort</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
 </sst>
 </file>
@@ -175,14 +243,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -195,6 +260,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -477,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,11 +559,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -505,50 +574,50 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>22</v>
       </c>
       <c r="E7" s="2"/>
@@ -563,13 +632,13 @@
       <c r="F9" s="2"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>25</v>
       </c>
     </row>
@@ -629,7 +698,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B20">
@@ -640,12 +709,12 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -726,4 +795,445 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:G22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="9">
+        <v>43742</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="9"/>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f>Productive_Hours - (Day_of_the_Sprint *Average_Daily_Productive_Hours)</f>
+        <v>19.2</v>
+      </c>
+      <c r="F3">
+        <f>Total_Available_Hours - (Day_of_the_Sprint * Average_Daily_Productive_Hours)</f>
+        <v>24</v>
+      </c>
+      <c r="G3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="9">
+        <v>43753</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <f>Productive_Hours - (Day_of_the_Sprint *Average_Daily_Productive_Hours)</f>
+        <v>16.8</v>
+      </c>
+      <c r="F4">
+        <f>Total_Available_Hours - (Day_of_the_Sprint * Average_Daily_Productive_Hours)</f>
+        <v>21.6</v>
+      </c>
+      <c r="G4">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <f>NETWORKDAYS(Sprint_Start_Date,Sprint_End_Date)</f>
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <f>Productive_Hours - (Day_of_the_Sprint *Average_Daily_Productive_Hours)</f>
+        <v>14.399999999999999</v>
+      </c>
+      <c r="F5">
+        <f>Total_Available_Hours - (Day_of_the_Sprint * Average_Daily_Productive_Hours)</f>
+        <v>19.2</v>
+      </c>
+      <c r="G5">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <f>Productive_Hours - (Day_of_the_Sprint *Average_Daily_Productive_Hours)</f>
+        <v>12</v>
+      </c>
+      <c r="F6">
+        <f>Total_Available_Hours - (Day_of_the_Sprint * Average_Daily_Productive_Hours)</f>
+        <v>16.8</v>
+      </c>
+      <c r="G6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7">
+        <f>Working_Days*Work_Hours_Per_Day</f>
+        <v>24</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <f>Productive_Hours - (Day_of_the_Sprint *Average_Daily_Productive_Hours)</f>
+        <v>9.6</v>
+      </c>
+      <c r="F7">
+        <f>Total_Available_Hours - (Day_of_the_Sprint * Average_Daily_Productive_Hours)</f>
+        <v>14.4</v>
+      </c>
+      <c r="G7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8">
+        <f>Total_Available_Hours *80 / 100</f>
+        <v>19.2</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <f>Productive_Hours - (Day_of_the_Sprint *Average_Daily_Productive_Hours)</f>
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="F8">
+        <f>Total_Available_Hours - (Day_of_the_Sprint * Average_Daily_Productive_Hours)</f>
+        <v>12</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9">
+        <f>Productive_Hours/Working_Days</f>
+        <v>2.4</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <f>Productive_Hours - (Day_of_the_Sprint *Average_Daily_Productive_Hours)</f>
+        <v>4.8000000000000007</v>
+      </c>
+      <c r="F9">
+        <f>Total_Available_Hours - (Day_of_the_Sprint * Average_Daily_Productive_Hours)</f>
+        <v>9.6000000000000014</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <f>Productive_Hours - (Day_of_the_Sprint *Average_Daily_Productive_Hours)</f>
+        <v>2.3999999999999986</v>
+      </c>
+      <c r="F10">
+        <f>Total_Available_Hours - (Day_of_the_Sprint * Average_Daily_Productive_Hours)</f>
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <f>Productive_Hours - (Day_of_the_Sprint *Average_Daily_Productive_Hours)</f>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f>Total_Available_Hours - (Day_of_the_Sprint * Average_Daily_Productive_Hours)</f>
+        <v>4.8000000000000007</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <f>B14+C14+D14+E14</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <f>B15+C15+D15+E15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <f>B16+C16+D16+E16</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <f>B17+C17+D17+E17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <f>B18+C18+D18+E18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>6</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <f>B19+C19+D19+E19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>7</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <f>B20+C20+D20+E20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>8</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <f>B21+C21+D21+E21</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22">
+        <f>SUM(B14:B21)</f>
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <f t="shared" ref="C22:F22" si="0">SUM(C14:C21)</f>
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/All Tasks/Task 3A - Sprint Logs.xlsx
+++ b/All Tasks/Task 3A - Sprint Logs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,8 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="Actual">Sheet3!$G$4</definedName>
+    <definedName name="Actual">Sheet3!$G$3</definedName>
+    <definedName name="Available_Effort">Sheet3!$G$14</definedName>
     <definedName name="Average_Daily_Productive_Hours">Sheet3!$B$9</definedName>
     <definedName name="Day_of_the_Sprint">Sheet3!$D$3:$D10</definedName>
     <definedName name="Forecast">Sheet3!$E$2</definedName>
@@ -26,6 +27,7 @@
     <definedName name="Sprint_Start_Date">Sheet3!$B$2</definedName>
     <definedName name="Target">Sheet3!$F$2</definedName>
     <definedName name="Total_Available_Hours">Sheet3!$B$7</definedName>
+    <definedName name="Total_Effort">Sheet3!$F$15:$F$22</definedName>
     <definedName name="Work_Hours_Per_Day">Sheet3!$B$6</definedName>
     <definedName name="Working_Days">Sheet3!$B$5</definedName>
   </definedNames>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
   <si>
     <t>Sprint Logs</t>
   </si>
@@ -177,6 +179,9 @@
   </si>
   <si>
     <t>total</t>
+  </si>
+  <si>
+    <t>Available Effort</t>
   </si>
 </sst>
 </file>
@@ -260,10 +265,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -279,6 +284,1349 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t>4th Sprint Burndown Chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Forecast</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$D$3:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$E$3:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.3999999999999986</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-19C5-4C79-A7D1-E7D49DB0F26B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Target</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$D$3:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$F$3:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.6000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.8000000000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-19C5-4C79-A7D1-E7D49DB0F26B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Actual</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$D$3:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$G$3:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-19C5-4C79-A7D1-E7D49DB0F26B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="394144944"/>
+        <c:axId val="394149208"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet3!$D$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Day of the Sprint</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet3!$D$3:$D$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>8</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet3!$D$3:$D$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>8</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-19C5-4C79-A7D1-E7D49DB0F26B}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="394144944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="394149208"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="394149208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="394144944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -546,8 +1894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30:C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,11 +1907,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -712,30 +2060,66 @@
       <c r="A24" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="B24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>10</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>8</v>
       </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>9</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>7</v>
       </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>9</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>24</v>
       </c>
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28">
+        <v>8</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>20</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
@@ -799,10 +2183,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G22"/>
+  <dimension ref="A2:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -813,13 +2197,14 @@
     <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.42578125" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="8">
         <v>43742</v>
       </c>
       <c r="D2" t="s">
@@ -836,42 +2221,40 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="9"/>
+      <c r="B3" s="8"/>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <f>Productive_Hours - (Day_of_the_Sprint *Average_Daily_Productive_Hours)</f>
-        <v>19.2</v>
+        <v>16</v>
       </c>
       <c r="F3">
-        <f>Total_Available_Hours - (Day_of_the_Sprint * Average_Daily_Productive_Hours)</f>
+        <f t="shared" ref="F3:F11" si="0">Total_Available_Hours - (Day_of_the_Sprint * Average_Daily_Productive_Hours)</f>
         <v>24</v>
       </c>
       <c r="G3">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="8">
         <v>43753</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <f>Productive_Hours - (Day_of_the_Sprint *Average_Daily_Productive_Hours)</f>
-        <v>16.8</v>
+        <v>15</v>
       </c>
       <c r="F4">
-        <f>Total_Available_Hours - (Day_of_the_Sprint * Average_Daily_Productive_Hours)</f>
+        <f t="shared" si="0"/>
         <v>21.6</v>
       </c>
       <c r="G4">
-        <v>13.4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -886,15 +2269,14 @@
         <v>2</v>
       </c>
       <c r="E5">
-        <f>Productive_Hours - (Day_of_the_Sprint *Average_Daily_Productive_Hours)</f>
-        <v>14.399999999999999</v>
+        <v>13</v>
       </c>
       <c r="F5">
-        <f>Total_Available_Hours - (Day_of_the_Sprint * Average_Daily_Productive_Hours)</f>
+        <f t="shared" si="0"/>
         <v>19.2</v>
       </c>
       <c r="G5">
-        <v>12.4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -908,15 +2290,15 @@
         <v>3</v>
       </c>
       <c r="E6">
-        <f>Productive_Hours - (Day_of_the_Sprint *Average_Daily_Productive_Hours)</f>
+        <f t="shared" ref="E3:E11" si="1">Productive_Hours - (Day_of_the_Sprint *Average_Daily_Productive_Hours)</f>
         <v>12</v>
       </c>
       <c r="F6">
-        <f>Total_Available_Hours - (Day_of_the_Sprint * Average_Daily_Productive_Hours)</f>
+        <f t="shared" si="0"/>
         <v>16.8</v>
       </c>
       <c r="G6">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -931,15 +2313,15 @@
         <v>4</v>
       </c>
       <c r="E7">
-        <f>Productive_Hours - (Day_of_the_Sprint *Average_Daily_Productive_Hours)</f>
+        <f t="shared" si="1"/>
         <v>9.6</v>
       </c>
       <c r="F7">
-        <f>Total_Available_Hours - (Day_of_the_Sprint * Average_Daily_Productive_Hours)</f>
+        <f t="shared" si="0"/>
         <v>14.4</v>
       </c>
       <c r="G7">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -954,15 +2336,15 @@
         <v>5</v>
       </c>
       <c r="E8">
-        <f>Productive_Hours - (Day_of_the_Sprint *Average_Daily_Productive_Hours)</f>
+        <f t="shared" si="1"/>
         <v>7.1999999999999993</v>
       </c>
       <c r="F8">
-        <f>Total_Available_Hours - (Day_of_the_Sprint * Average_Daily_Productive_Hours)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="G8">
-        <v>6</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -977,11 +2359,11 @@
         <v>6</v>
       </c>
       <c r="E9">
-        <f>Productive_Hours - (Day_of_the_Sprint *Average_Daily_Productive_Hours)</f>
+        <f t="shared" si="1"/>
         <v>4.8000000000000007</v>
       </c>
       <c r="F9">
-        <f>Total_Available_Hours - (Day_of_the_Sprint * Average_Daily_Productive_Hours)</f>
+        <f t="shared" si="0"/>
         <v>9.6000000000000014</v>
       </c>
       <c r="G9">
@@ -993,11 +2375,11 @@
         <v>7</v>
       </c>
       <c r="E10">
-        <f>Productive_Hours - (Day_of_the_Sprint *Average_Daily_Productive_Hours)</f>
+        <f t="shared" si="1"/>
         <v>2.3999999999999986</v>
       </c>
       <c r="F10">
-        <f>Total_Available_Hours - (Day_of_the_Sprint * Average_Daily_Productive_Hours)</f>
+        <f t="shared" si="0"/>
         <v>7.1999999999999993</v>
       </c>
       <c r="G10">
@@ -1009,11 +2391,11 @@
         <v>8</v>
       </c>
       <c r="E11">
-        <f>Productive_Hours - (Day_of_the_Sprint *Average_Daily_Productive_Hours)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F11">
-        <f>Total_Available_Hours - (Day_of_the_Sprint * Average_Daily_Productive_Hours)</f>
+        <f t="shared" si="0"/>
         <v>4.8000000000000007</v>
       </c>
       <c r="G11">
@@ -1021,49 +2403,37 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>39</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>40</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>41</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D14" t="s">
         <v>42</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E14" t="s">
         <v>43</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F14" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <f>B14+C14+D14+E14</f>
-        <v>4</v>
+      <c r="G14">
+        <f>Actual</f>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -1078,19 +2448,23 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <f>B15+C15+D15+E15</f>
+        <f t="shared" ref="F15:F22" si="2">B15+C15+D15+E15</f>
         <v>4</v>
+      </c>
+      <c r="G15">
+        <f>(Actual - Total_Effort)</f>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -1099,34 +2473,40 @@
         <v>1</v>
       </c>
       <c r="F16">
-        <f>B16+C16+D16+E16</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <f>B17+C17+D17+E17</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1141,13 +2521,16 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <f>B18+C18+D18+E18</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1162,13 +2545,16 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <f>B19+C19+D19+E19</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1183,57 +2569,88 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <f>B20+C20+D20+E20</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
+        <v>7</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>8</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>1</v>
       </c>
-      <c r="C21">
+      <c r="C22">
         <v>1</v>
       </c>
-      <c r="D21">
+      <c r="D22">
         <v>1</v>
       </c>
-      <c r="E21">
+      <c r="E22">
         <v>1</v>
       </c>
-      <c r="F21">
-        <f>B21+C21+D21+E21</f>
+      <c r="F22">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>45</v>
       </c>
-      <c r="B22">
-        <f>SUM(B14:B21)</f>
+      <c r="B23">
+        <f>SUM(B15:B22)</f>
         <v>5</v>
       </c>
-      <c r="C22">
-        <f t="shared" ref="C22:F22" si="0">SUM(C14:C21)</f>
+      <c r="C23">
+        <f t="shared" ref="C23:F23" si="3">SUM(C15:C22)</f>
+        <v>4</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="D22">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="0"/>
+      <c r="F23">
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/All Tasks/Task 3A - Sprint Logs.xlsx
+++ b/All Tasks/Task 3A - Sprint Logs.xlsx
@@ -321,7 +321,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB" baseline="0"/>
-              <a:t>4th Sprint Burndown Chart</a:t>
+              <a:t>5th Sprint Burndown Chart</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -677,25 +677,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.5</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>2</c:v>
@@ -1895,13 +1895,13 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30:C30"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="85" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.42578125" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="6" max="6" width="11.140625" customWidth="1"/>
   </cols>
@@ -2185,8 +2185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G23"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView topLeftCell="B9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2233,7 +2233,7 @@
         <v>24</v>
       </c>
       <c r="G3">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2254,7 +2254,7 @@
         <v>21.6</v>
       </c>
       <c r="G4">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -2276,7 +2276,7 @@
         <v>19.2</v>
       </c>
       <c r="G5">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2298,7 +2298,7 @@
         <v>16.8</v>
       </c>
       <c r="G6">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -2321,7 +2321,7 @@
         <v>14.4</v>
       </c>
       <c r="G7">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -2344,7 +2344,7 @@
         <v>12</v>
       </c>
       <c r="G8">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2367,7 +2367,7 @@
         <v>9.6000000000000014</v>
       </c>
       <c r="G9">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -2428,7 +2428,7 @@
       </c>
       <c r="G14">
         <f>Actual</f>
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="G15">
         <f>(Actual - Total_Effort)</f>
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
